--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_summary_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_summary_No_lineal_Estacionario_SETAR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Modelo</t>
   </si>
@@ -31,15 +31,15 @@
     <t>ECRPS_Mejor</t>
   </si>
   <si>
+    <t>AREPD</t>
+  </si>
+  <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>Block Bootstrapping</t>
   </si>
   <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
     <t>DeepAR</t>
   </si>
   <si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Sieve Bootstrap</t>
-  </si>
-  <si>
-    <t>2/10</t>
   </si>
   <si>
     <t>0/10</t>
@@ -450,13 +447,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
       <c r="E2">
-        <v>0.6023804666589008</v>
+        <v>0.6709855579037426</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -464,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -473,7 +470,7 @@
         <v>60</v>
       </c>
       <c r="E3">
-        <v>0.6709855579037426</v>
+        <v>0.6157499770895435</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -481,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -490,7 +487,7 @@
         <v>60</v>
       </c>
       <c r="E4">
-        <v>0.6157499770895435</v>
+        <v>0.6023804666589008</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -498,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -515,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -532,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -549,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -566,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -583,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
